--- a/data_impute_project/data/bird.xlsx
+++ b/data_impute_project/data/bird.xlsx
@@ -436,47 +436,47 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>specimen</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>diet</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>δ13C coll</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>δ15N coll</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>δ13C carb</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>δ18O carb</t>
+          <t>I</t>
         </is>
       </c>
     </row>

--- a/data_impute_project/data/bird.xlsx
+++ b/data_impute_project/data/bird.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -468,6 +473,11 @@
       <c r="D2" t="n">
         <v>-6.53</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>S 107</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -482,6 +492,11 @@
       <c r="D3" t="n">
         <v>-5.29</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>S 108</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -496,6 +511,11 @@
       <c r="D4" t="n">
         <v>-12.15</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>S 109</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -510,6 +530,11 @@
       <c r="D5" t="n">
         <v>-12.74</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Hb 140</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -524,6 +549,11 @@
       <c r="D6" t="n">
         <v>-16.37</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>S 51</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -538,6 +568,11 @@
       <c r="D7" t="n">
         <v>-7.38</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>S 52</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -552,6 +587,11 @@
       <c r="D8" t="n">
         <v>-8.91</v>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>S 54</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -566,6 +606,11 @@
       <c r="D9" t="n">
         <v>-12.38</v>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>S 97</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -580,6 +625,11 @@
       <c r="D10" t="n">
         <v>-5.67</v>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>113 BH1H</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -594,6 +644,11 @@
       <c r="D11" t="n">
         <v>-5.89</v>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>114 BH2H</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -608,6 +663,11 @@
       <c r="D12" t="n">
         <v>-6.73</v>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>117 BH5Cc</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -622,6 +682,11 @@
       <c r="D13" t="n">
         <v>-6.8</v>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Hb 151</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -636,6 +701,11 @@
       <c r="D14" t="n">
         <v>-11.65</v>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Hb 152</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -650,6 +720,11 @@
       <c r="D15" t="n">
         <v>-11.95</v>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Hb 148</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -664,6 +739,11 @@
       <c r="D16" t="n">
         <v>-13.62</v>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Hb 149</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -678,6 +758,11 @@
       <c r="D17" t="n">
         <v>-6.36</v>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Hb 150</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -692,6 +777,11 @@
       <c r="D18" t="n">
         <v>-12.01</v>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Hb 146</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -706,6 +796,11 @@
       <c r="D19" t="n">
         <v>-9.140000000000001</v>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Hb 147</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -720,6 +815,11 @@
       <c r="D20" t="n">
         <v>-8.380000000000001</v>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79 EE3Tt</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -734,6 +834,11 @@
       <c r="D21" t="n">
         <v>-8.949999999999999</v>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>S 76</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -748,6 +853,11 @@
       <c r="D22" t="n">
         <v>-7.68</v>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>S 77</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -762,6 +872,11 @@
       <c r="D23" t="n">
         <v>-9.01</v>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>S 78</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -776,6 +891,11 @@
       <c r="D24" t="n">
         <v>-6.79</v>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>S 79</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -790,6 +910,11 @@
       <c r="D25" t="n">
         <v>-10.35</v>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>S 80</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -804,6 +929,11 @@
       <c r="D26" t="n">
         <v>-8.220000000000001</v>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>120 GS3Tt</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -818,6 +948,11 @@
       <c r="D27" t="n">
         <v>-8.01</v>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>121 GS4U</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -832,6 +967,11 @@
       <c r="D28" t="n">
         <v>-7.91</v>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Hb 167</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -846,6 +986,11 @@
       <c r="D29" t="n">
         <v>-7.5</v>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Hb 171</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -860,6 +1005,11 @@
       <c r="D30" t="n">
         <v>-6.41</v>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>S 86</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -874,6 +1024,11 @@
       <c r="D31" t="n">
         <v>-4.5</v>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>S 87</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -888,6 +1043,11 @@
       <c r="D32" t="n">
         <v>-4.83</v>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>S 88</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -902,6 +1062,11 @@
       <c r="D33" t="n">
         <v>-6.82</v>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>S 89</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -916,6 +1081,11 @@
       <c r="D34" t="n">
         <v>-6.2</v>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>S 90</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -930,6 +1100,11 @@
       <c r="D35" t="n">
         <v>-8.24</v>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>122 HB1F</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -944,6 +1119,11 @@
       <c r="D36" t="n">
         <v>-6.43</v>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>123 HB2F</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -958,6 +1138,11 @@
       <c r="D37" t="n">
         <v>-7.27</v>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>124 HB3F</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -972,6 +1157,11 @@
       <c r="D38" t="n">
         <v>-4.94</v>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>125 HB4F</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -986,6 +1176,11 @@
       <c r="D39" t="n">
         <v>-6.87</v>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>126 HB5F</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1000,6 +1195,11 @@
       <c r="D40" t="n">
         <v>-8.119999999999999</v>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Hb 108</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1014,6 +1214,11 @@
       <c r="D41" t="n">
         <v>-6.81</v>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Hb 109</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1028,6 +1233,11 @@
       <c r="D42" t="n">
         <v>-10.36</v>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Hb 110</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1042,6 +1252,11 @@
       <c r="D43" t="n">
         <v>-6.04</v>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Hb 111</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1056,6 +1271,11 @@
       <c r="D44" t="n">
         <v>-7.02</v>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Hb 112</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1070,6 +1290,11 @@
       <c r="D45" t="n">
         <v>-8.300000000000001</v>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>S 31</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1084,6 +1309,11 @@
       <c r="D46" t="n">
         <v>-7.02</v>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>S 32</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1098,6 +1328,11 @@
       <c r="D47" t="n">
         <v>-6.55</v>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>S 33</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1112,6 +1347,11 @@
       <c r="D48" t="n">
         <v>-7.68</v>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>S 34</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1126,6 +1366,11 @@
       <c r="D49" t="n">
         <v>-6.84</v>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>S 35</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1140,6 +1385,11 @@
       <c r="D50" t="n">
         <v>-8.130000000000001</v>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Hb 113</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1154,6 +1404,11 @@
       <c r="D51" t="n">
         <v>-7.47</v>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Hb 114</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1168,6 +1423,11 @@
       <c r="D52" t="n">
         <v>-7.92</v>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Hb 115</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1182,6 +1442,11 @@
       <c r="D53" t="n">
         <v>-6.97</v>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Hb 117</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1196,6 +1461,11 @@
       <c r="D54" t="n">
         <v>-11.22</v>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>S 36</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1210,6 +1480,11 @@
       <c r="D55" t="n">
         <v>-9.289999999999999</v>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>S 37</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1224,6 +1499,11 @@
       <c r="D56" t="n">
         <v>-6.58</v>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>S 38</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1238,6 +1518,11 @@
       <c r="D57" t="n">
         <v>-10.18</v>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>S 39</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1252,6 +1537,11 @@
       <c r="D58" t="n">
         <v>-7.15</v>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>S 40</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1266,6 +1556,11 @@
       <c r="D59" t="n">
         <v>-6.48</v>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Hb 159</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1280,6 +1575,11 @@
       <c r="D60" t="n">
         <v>-7.13</v>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Hb 160</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1294,6 +1594,11 @@
       <c r="D61" t="n">
         <v>-10.33</v>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Hb 161</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1308,6 +1613,11 @@
       <c r="D62" t="n">
         <v>-6.51</v>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>80 KRA1H</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1322,6 +1632,11 @@
       <c r="D63" t="n">
         <v>-5.62</v>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81 KRA2H</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1336,6 +1651,11 @@
       <c r="D64" t="n">
         <v>-6.21</v>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>82 KRA3H</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1350,6 +1670,11 @@
       <c r="D65" t="n">
         <v>-6.16</v>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>83 KRA4H</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1364,6 +1689,11 @@
       <c r="D66" t="n">
         <v>-11.15</v>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Hb 183</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1378,6 +1708,11 @@
       <c r="D67" t="n">
         <v>-6.65</v>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Hb 184</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1392,6 +1727,11 @@
       <c r="D68" t="n">
         <v>-11.54</v>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Hb 185</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1406,6 +1746,11 @@
       <c r="D69" t="n">
         <v>-7.76</v>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Hb 118</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1420,6 +1765,11 @@
       <c r="D70" t="n">
         <v>-5.25</v>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Hb 119</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1434,6 +1784,11 @@
       <c r="D71" t="n">
         <v>-11.38</v>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Hb 120</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1448,6 +1803,11 @@
       <c r="D72" t="n">
         <v>-7.37</v>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Hb 121</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1462,6 +1822,11 @@
       <c r="D73" t="n">
         <v>-8.15</v>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Hb 122</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1476,6 +1841,11 @@
       <c r="D74" t="n">
         <v>-7.63</v>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86 K2H</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1490,6 +1860,11 @@
       <c r="D75" t="n">
         <v>-6.51</v>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87 K3F</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1504,6 +1879,11 @@
       <c r="D76" t="n">
         <v>-8.42</v>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88 K4Cc</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1518,6 +1898,11 @@
       <c r="D77" t="n">
         <v>-6.97</v>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89 K5U</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1532,6 +1917,11 @@
       <c r="D78" t="n">
         <v>-7.33</v>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>S 101</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1546,6 +1936,11 @@
       <c r="D79" t="n">
         <v>-11.59</v>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>S 102</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1560,6 +1955,11 @@
       <c r="D80" t="n">
         <v>-5.21</v>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>127 KN1Tt</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1574,6 +1974,11 @@
       <c r="D81" t="n">
         <v>-5.57</v>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>128 KN2Tt</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1588,6 +1993,11 @@
       <c r="D82" t="n">
         <v>-12.5</v>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>129 KN3Tt</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1602,6 +2012,11 @@
       <c r="D83" t="n">
         <v>-6.16</v>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>130 KN4U</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1616,6 +2031,11 @@
       <c r="D84" t="n">
         <v>-6.42</v>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>131 KN5Cr</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1630,6 +2050,11 @@
       <c r="D85" t="n">
         <v>-12.45</v>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>S 71</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1644,6 +2069,11 @@
       <c r="D86" t="n">
         <v>-11.09</v>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>S 72</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1658,6 +2088,11 @@
       <c r="D87" t="n">
         <v>-9.199999999999999</v>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>S 73</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1672,6 +2107,11 @@
       <c r="D88" t="n">
         <v>-8.84</v>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>S 74</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1686,6 +2126,11 @@
       <c r="D89" t="n">
         <v>-7.25</v>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>S 75</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1700,6 +2145,11 @@
       <c r="D90" t="n">
         <v>-13.56</v>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Hb 126</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1714,6 +2164,11 @@
       <c r="D91" t="n">
         <v>-11.92</v>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Hb 127</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1728,6 +2183,11 @@
       <c r="D92" t="n">
         <v>-11.49</v>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Hb 136</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1742,6 +2202,11 @@
       <c r="D93" t="n">
         <v>-10.83</v>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Hb 138</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1756,6 +2221,11 @@
       <c r="D94" t="n">
         <v>-8.609999999999999</v>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Hb 139</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1770,6 +2240,11 @@
       <c r="D95" t="n">
         <v>-10.13</v>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90 RE1H</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1784,6 +2259,11 @@
       <c r="D96" t="n">
         <v>-12.97</v>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91 RE2Tt</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -1798,6 +2278,11 @@
       <c r="D97" t="n">
         <v>-11.49</v>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92 RE3St</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1812,6 +2297,11 @@
       <c r="D98" t="n">
         <v>-10.24</v>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>132 RE1H</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -1826,6 +2316,11 @@
       <c r="D99" t="n">
         <v>-13.05</v>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>133 RE2H</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -1840,6 +2335,11 @@
       <c r="D100" t="n">
         <v>-10.84</v>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>134 RE3H</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -1854,6 +2354,11 @@
       <c r="D101" t="n">
         <v>-12.51</v>
       </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>135 RE4H</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -1868,6 +2373,11 @@
       <c r="D102" t="n">
         <v>-8.289999999999999</v>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>136 RE5H</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -1882,6 +2392,11 @@
       <c r="D103" t="n">
         <v>-7.98</v>
       </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Hb 142</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -1896,6 +2411,11 @@
       <c r="D104" t="n">
         <v>-7.3</v>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>S 61</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -1910,6 +2430,11 @@
       <c r="D105" t="n">
         <v>-7.25</v>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>S 62</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -1924,6 +2449,11 @@
       <c r="D106" t="n">
         <v>-7.88</v>
       </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>S 63</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -1938,6 +2468,11 @@
       <c r="D107" t="n">
         <v>-10.36</v>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>S 65</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -1952,6 +2487,11 @@
       <c r="D108" t="n">
         <v>-8.58</v>
       </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>137 SC1H</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -1966,6 +2506,11 @@
       <c r="D109" t="n">
         <v>-9.19</v>
       </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>138 SC2H</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -1980,6 +2525,11 @@
       <c r="D110" t="n">
         <v>-10.11</v>
       </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>139 SC3H</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -1994,6 +2544,11 @@
       <c r="D111" t="n">
         <v>-11.31</v>
       </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>140 SC4H</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2008,6 +2563,11 @@
       <c r="D112" t="n">
         <v>-10.27</v>
       </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>141 SC5H</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2022,6 +2582,11 @@
       <c r="D113" t="n">
         <v>-8.029999999999999</v>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Hb 162</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2036,6 +2601,11 @@
       <c r="D114" t="n">
         <v>-10.07</v>
       </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Hb 163</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2050,6 +2620,11 @@
       <c r="D115" t="n">
         <v>-9.390000000000001</v>
       </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Hb 164</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2064,6 +2639,11 @@
       <c r="D116" t="n">
         <v>-8.710000000000001</v>
       </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Hb 166</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2078,6 +2658,11 @@
       <c r="D117" t="n">
         <v>-5.26</v>
       </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>S 81</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2092,6 +2677,11 @@
       <c r="D118" t="n">
         <v>-8.039999999999999</v>
       </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>S 82</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2106,6 +2696,11 @@
       <c r="D119" t="n">
         <v>-10.28</v>
       </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>S 83</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2120,6 +2715,11 @@
       <c r="D120" t="n">
         <v>-8.449999999999999</v>
       </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>S 84</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2134,6 +2734,11 @@
       <c r="D121" t="n">
         <v>-7.37</v>
       </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>S 85</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2148,6 +2753,11 @@
       <c r="D122" t="n">
         <v>-11.65</v>
       </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93 SA1U</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2162,6 +2772,11 @@
       <c r="D123" t="n">
         <v>-8.93</v>
       </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94 SA2U</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2176,6 +2791,11 @@
       <c r="D124" t="n">
         <v>-9.73</v>
       </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>95 SA3U</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2190,6 +2810,11 @@
       <c r="D125" t="n">
         <v>-5.94</v>
       </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>96 SA4U</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2204,6 +2829,11 @@
       <c r="D126" t="n">
         <v>-5.9</v>
       </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>97 SA5H</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2218,6 +2848,11 @@
       <c r="D127" t="n">
         <v>-6.55</v>
       </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>142 SA1H</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2232,6 +2867,11 @@
       <c r="D128" t="n">
         <v>-6.39</v>
       </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>144 SA3Tt</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -2246,6 +2886,11 @@
       <c r="D129" t="n">
         <v>-6.12</v>
       </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>146 SA5Cmc</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -2260,6 +2905,11 @@
       <c r="D130" t="n">
         <v>-9.619999999999999</v>
       </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Hb 153</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -2274,6 +2924,11 @@
       <c r="D131" t="n">
         <v>-10.15</v>
       </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Hb 154</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -2288,6 +2943,11 @@
       <c r="D132" t="n">
         <v>-9.859999999999999</v>
       </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Hb 155</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -2302,6 +2962,11 @@
       <c r="D133" t="n">
         <v>-9.359999999999999</v>
       </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Hb 156</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -2316,6 +2981,11 @@
       <c r="D134" t="n">
         <v>-9.57</v>
       </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>S 41</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -2330,6 +3000,11 @@
       <c r="D135" t="n">
         <v>-12.21</v>
       </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>S 42</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -2344,6 +3019,11 @@
       <c r="D136" t="n">
         <v>-11.75</v>
       </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>S 43</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -2358,6 +3038,11 @@
       <c r="D137" t="n">
         <v>-11.03</v>
       </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>S 44</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -2372,6 +3057,11 @@
       <c r="D138" t="n">
         <v>-11.63</v>
       </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>S 45</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -2386,6 +3076,11 @@
       <c r="D139" t="n">
         <v>-10.95</v>
       </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>98 SW1H</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -2400,6 +3095,11 @@
       <c r="D140" t="n">
         <v>-7.41</v>
       </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>99 SW2Cc</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -2414,6 +3114,11 @@
       <c r="D141" t="n">
         <v>-6.92</v>
       </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>100 SW3R</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -2428,6 +3133,11 @@
       <c r="D142" t="n">
         <v>-13.29</v>
       </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>147 SW1R</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -2442,6 +3152,11 @@
       <c r="D143" t="n">
         <v>-10.01</v>
       </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>148 SW2R</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -2456,6 +3171,11 @@
       <c r="D144" t="n">
         <v>-11.51</v>
       </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>149 SW3H</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -2470,6 +3190,11 @@
       <c r="D145" t="n">
         <v>-11.35</v>
       </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>150 SW4F</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -2484,6 +3209,11 @@
       <c r="D146" t="n">
         <v>-12.84</v>
       </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>151 SW5Tt</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -2498,6 +3228,11 @@
       <c r="D147" t="n">
         <v>-6.72</v>
       </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Hb 123</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -2512,6 +3247,11 @@
       <c r="D148" t="n">
         <v>-9.06</v>
       </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Hb 124</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -2526,6 +3266,11 @@
       <c r="D149" t="n">
         <v>-10.18</v>
       </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Hb 125</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -2540,6 +3285,11 @@
       <c r="D150" t="n">
         <v>-8.550000000000001</v>
       </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>S 56</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -2554,6 +3304,11 @@
       <c r="D151" t="n">
         <v>-12.52</v>
       </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>S 57</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -2568,6 +3323,11 @@
       <c r="D152" t="n">
         <v>-9.300000000000001</v>
       </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>S 58</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -2582,6 +3342,11 @@
       <c r="D153" t="n">
         <v>-10.54</v>
       </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Hb 131</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -2596,6 +3361,11 @@
       <c r="D154" t="n">
         <v>-7.81</v>
       </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Hb 133</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -2610,6 +3380,11 @@
       <c r="D155" t="n">
         <v>-8.83</v>
       </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Hb 134</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -2624,6 +3399,11 @@
       <c r="D156" t="n">
         <v>-6.91</v>
       </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>S 46</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -2638,6 +3418,11 @@
       <c r="D157" t="n">
         <v>-7.43</v>
       </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>S 47</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -2652,6 +3437,11 @@
       <c r="D158" t="n">
         <v>-8.19</v>
       </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>S 48</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -2666,6 +3456,11 @@
       <c r="D159" t="n">
         <v>-8.539999999999999</v>
       </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>S 49</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -2680,6 +3475,11 @@
       <c r="D160" t="n">
         <v>-9.880000000000001</v>
       </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>S 50</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -2694,6 +3494,11 @@
       <c r="D161" t="n">
         <v>-9.57</v>
       </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>104 SE2H</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -2708,6 +3513,11 @@
       <c r="D162" t="n">
         <v>-7.82</v>
       </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>105 SE3U</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -2722,6 +3532,11 @@
       <c r="D163" t="n">
         <v>-6.71</v>
       </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>152 SE1H</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -2736,6 +3551,11 @@
       <c r="D164" t="n">
         <v>-8.550000000000001</v>
       </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>153 SE2H</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -2750,6 +3570,11 @@
       <c r="D165" t="n">
         <v>-7.69</v>
       </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>154 SE3H</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -2764,6 +3589,11 @@
       <c r="D166" t="n">
         <v>-11.72</v>
       </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>155 SE4H</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -2778,6 +3608,11 @@
       <c r="D167" t="n">
         <v>-9.630000000000001</v>
       </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>156 SE5H</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -2792,6 +3627,11 @@
       <c r="D168" t="n">
         <v>-8.68</v>
       </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Hb 178</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -2806,6 +3646,11 @@
       <c r="D169" t="n">
         <v>-7.21</v>
       </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Hb 179</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -2820,6 +3665,11 @@
       <c r="D170" t="n">
         <v>-5.07</v>
       </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Hb 180</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -2834,6 +3684,11 @@
       <c r="D171" t="n">
         <v>-4.1</v>
       </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Hb 182</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -2848,6 +3703,11 @@
       <c r="D172" t="n">
         <v>-7.26</v>
       </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>109 TL2St</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -2862,6 +3722,11 @@
       <c r="D173" t="n">
         <v>-5.05</v>
       </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>110 TL3St</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -2876,6 +3741,11 @@
       <c r="D174" t="n">
         <v>-6.16</v>
       </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>S 91</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -2890,6 +3760,11 @@
       <c r="D175" t="n">
         <v>-8.380000000000001</v>
       </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>S 92</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -2904,6 +3779,11 @@
       <c r="D176" t="n">
         <v>-7.31</v>
       </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>S 93</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -2918,6 +3798,11 @@
       <c r="D177" t="n">
         <v>-10.88</v>
       </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>S 94</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -2931,6 +3816,11 @@
       </c>
       <c r="D178" t="n">
         <v>-11.57</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>S 66</t>
+        </is>
       </c>
     </row>
   </sheetData>
